--- a/Mechanism/assets/tilemapEDIT.xlsx
+++ b/Mechanism/assets/tilemapEDIT.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="7350"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="7350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tilemap" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -130,11 +131,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -146,6 +334,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,4 +1391,670 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="12">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13">
+        <v>4</v>
+      </c>
+      <c r="C1" s="13">
+        <v>4</v>
+      </c>
+      <c r="D1" s="22">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12">
+        <v>12</v>
+      </c>
+      <c r="F1" s="13">
+        <v>12</v>
+      </c>
+      <c r="G1" s="13">
+        <v>12</v>
+      </c>
+      <c r="H1" s="13">
+        <v>1</v>
+      </c>
+      <c r="I1" s="13">
+        <v>12</v>
+      </c>
+      <c r="J1" s="13">
+        <v>12</v>
+      </c>
+      <c r="K1" s="13">
+        <v>12</v>
+      </c>
+      <c r="L1" s="13">
+        <v>1</v>
+      </c>
+      <c r="M1" s="13">
+        <v>1</v>
+      </c>
+      <c r="N1" s="13">
+        <v>1</v>
+      </c>
+      <c r="O1" s="13">
+        <v>1</v>
+      </c>
+      <c r="P1" s="14">
+        <v>1</v>
+      </c>
+      <c r="R1" t="str">
+        <f>CONCATENATE(A1,",",B1,",",C1,",",D1,",",E1,",",F1,",",G1,",",H1,",",I1,",",J1,",",K1,",",L1,",",M1,",",N1,",",O1,",",P1)</f>
+        <v>4,4,4,4,12,12,12,1,12,12,12,1,1,1,1,1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>4</v>
+      </c>
+      <c r="B2" s="11">
+        <v>4</v>
+      </c>
+      <c r="C2" s="11">
+        <v>4</v>
+      </c>
+      <c r="D2" s="23">
+        <v>4</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11">
+        <v>2</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11">
+        <v>12</v>
+      </c>
+      <c r="J2" s="11">
+        <v>12</v>
+      </c>
+      <c r="K2" s="11">
+        <v>12</v>
+      </c>
+      <c r="L2" s="11">
+        <v>1</v>
+      </c>
+      <c r="M2" s="11">
+        <v>1</v>
+      </c>
+      <c r="N2" s="11">
+        <v>1</v>
+      </c>
+      <c r="O2" s="11">
+        <v>1</v>
+      </c>
+      <c r="P2" s="16">
+        <v>1</v>
+      </c>
+      <c r="R2" t="str">
+        <f t="shared" ref="R2:R12" si="0">CONCATENATE(A2,",",B2,",",C2,",",D2,",",E2,",",F2,",",G2,",",H2,",",I2,",",J2,",",K2,",",L2,",",M2,",",N2,",",O2,",",P2)</f>
+        <v>4,4,4,4,1,1,2,1,12,12,12,1,1,1,1,1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11">
+        <v>4</v>
+      </c>
+      <c r="C3" s="11">
+        <v>4</v>
+      </c>
+      <c r="D3" s="23">
+        <v>4</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11">
+        <v>2</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11">
+        <v>12</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11">
+        <v>2</v>
+      </c>
+      <c r="L3" s="11">
+        <v>1</v>
+      </c>
+      <c r="M3" s="11">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11">
+        <v>2</v>
+      </c>
+      <c r="O3" s="11">
+        <v>12</v>
+      </c>
+      <c r="P3" s="16">
+        <v>2</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" si="0"/>
+        <v>4,4,4,4,1,1,2,1,12,1,2,1,1,2,12,2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11">
+        <v>4</v>
+      </c>
+      <c r="D4" s="23">
+        <v>4</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11">
+        <v>12</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11">
+        <v>2</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11">
+        <v>1</v>
+      </c>
+      <c r="N4" s="11">
+        <v>2</v>
+      </c>
+      <c r="O4" s="11">
+        <v>12</v>
+      </c>
+      <c r="P4" s="16">
+        <v>2</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="0"/>
+        <v>4,4,4,4,1,1,2,1,12,1,2,1,1,2,12,2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11">
+        <v>4</v>
+      </c>
+      <c r="D5" s="23">
+        <v>4</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>2</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11">
+        <v>2</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11">
+        <v>2</v>
+      </c>
+      <c r="L5" s="11">
+        <v>1</v>
+      </c>
+      <c r="M5" s="11">
+        <v>1</v>
+      </c>
+      <c r="N5" s="11">
+        <v>12</v>
+      </c>
+      <c r="O5" s="11">
+        <v>1</v>
+      </c>
+      <c r="P5" s="16">
+        <v>12</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="0"/>
+        <v>4,4,4,4,1,1,2,1,2,1,2,1,1,12,1,12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11">
+        <v>4</v>
+      </c>
+      <c r="D6" s="23">
+        <v>4</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
+        <v>12</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11">
+        <v>2</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
+        <v>2</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="11">
+        <v>1</v>
+      </c>
+      <c r="N6" s="11">
+        <v>12</v>
+      </c>
+      <c r="O6" s="11">
+        <v>1</v>
+      </c>
+      <c r="P6" s="16">
+        <v>12</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="0"/>
+        <v>4,4,4,4,1,1,12,1,2,1,2,1,1,12,1,12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11">
+        <v>4</v>
+      </c>
+      <c r="D7" s="23">
+        <v>4</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
+        <v>12</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11">
+        <v>12</v>
+      </c>
+      <c r="J7" s="11">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11">
+        <v>2</v>
+      </c>
+      <c r="L7" s="11">
+        <v>12</v>
+      </c>
+      <c r="M7" s="11">
+        <v>12</v>
+      </c>
+      <c r="N7" s="11">
+        <v>2</v>
+      </c>
+      <c r="O7" s="11">
+        <v>1</v>
+      </c>
+      <c r="P7" s="16">
+        <v>12</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="0"/>
+        <v>4,4,4,4,1,1,12,1,12,1,2,12,12,2,1,12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11">
+        <v>4</v>
+      </c>
+      <c r="D8" s="23">
+        <v>4</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18">
+        <v>12</v>
+      </c>
+      <c r="H8" s="18">
+        <v>12</v>
+      </c>
+      <c r="I8" s="18">
+        <v>12</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1</v>
+      </c>
+      <c r="K8" s="18">
+        <v>2</v>
+      </c>
+      <c r="L8" s="18">
+        <v>12</v>
+      </c>
+      <c r="M8" s="18">
+        <v>12</v>
+      </c>
+      <c r="N8" s="18">
+        <v>2</v>
+      </c>
+      <c r="O8" s="18">
+        <v>1</v>
+      </c>
+      <c r="P8" s="19">
+        <v>12</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="0"/>
+        <v>4,4,4,4,1,1,12,12,12,1,2,12,12,2,1,12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11">
+        <v>4</v>
+      </c>
+      <c r="C9" s="11">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11">
+        <v>4</v>
+      </c>
+      <c r="E9" s="20">
+        <v>4</v>
+      </c>
+      <c r="F9" s="20">
+        <v>4</v>
+      </c>
+      <c r="G9" s="20">
+        <v>4</v>
+      </c>
+      <c r="H9" s="20">
+        <v>4</v>
+      </c>
+      <c r="I9" s="20">
+        <v>4</v>
+      </c>
+      <c r="J9" s="20">
+        <v>4</v>
+      </c>
+      <c r="K9" s="20">
+        <v>4</v>
+      </c>
+      <c r="L9" s="20">
+        <v>4</v>
+      </c>
+      <c r="M9" s="20">
+        <v>4</v>
+      </c>
+      <c r="N9" s="20">
+        <v>4</v>
+      </c>
+      <c r="O9" s="20">
+        <v>4</v>
+      </c>
+      <c r="P9" s="21">
+        <v>4</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="0"/>
+        <v>4,4,4,4,4,4,4,4,4,4,4,4,4,4,4,4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>4</v>
+      </c>
+      <c r="B10" s="11">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11">
+        <v>4</v>
+      </c>
+      <c r="D10" s="11">
+        <v>4</v>
+      </c>
+      <c r="E10" s="11">
+        <v>4</v>
+      </c>
+      <c r="F10" s="11">
+        <v>4</v>
+      </c>
+      <c r="G10" s="11">
+        <v>4</v>
+      </c>
+      <c r="H10" s="11">
+        <v>4</v>
+      </c>
+      <c r="I10" s="11">
+        <v>4</v>
+      </c>
+      <c r="J10" s="11">
+        <v>4</v>
+      </c>
+      <c r="K10" s="11">
+        <v>4</v>
+      </c>
+      <c r="L10" s="11">
+        <v>4</v>
+      </c>
+      <c r="M10" s="11">
+        <v>4</v>
+      </c>
+      <c r="N10" s="11">
+        <v>4</v>
+      </c>
+      <c r="O10" s="11">
+        <v>4</v>
+      </c>
+      <c r="P10" s="16">
+        <v>4</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="0"/>
+        <v>4,4,4,4,4,4,4,4,4,4,4,4,4,4,4,4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>4</v>
+      </c>
+      <c r="B11" s="11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="11">
+        <v>4</v>
+      </c>
+      <c r="H11" s="11">
+        <v>4</v>
+      </c>
+      <c r="I11" s="11">
+        <v>4</v>
+      </c>
+      <c r="J11" s="11">
+        <v>4</v>
+      </c>
+      <c r="K11" s="11">
+        <v>4</v>
+      </c>
+      <c r="L11" s="11">
+        <v>4</v>
+      </c>
+      <c r="M11" s="11">
+        <v>4</v>
+      </c>
+      <c r="N11" s="11">
+        <v>4</v>
+      </c>
+      <c r="O11" s="11">
+        <v>4</v>
+      </c>
+      <c r="P11" s="16">
+        <v>4</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="0"/>
+        <v>4,4,4,4,4,4,4,4,4,4,4,4,4,4,4,4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>4</v>
+      </c>
+      <c r="B12" s="18">
+        <v>4</v>
+      </c>
+      <c r="C12" s="18">
+        <v>4</v>
+      </c>
+      <c r="D12" s="18">
+        <v>4</v>
+      </c>
+      <c r="E12" s="18">
+        <v>4</v>
+      </c>
+      <c r="F12" s="18">
+        <v>4</v>
+      </c>
+      <c r="G12" s="18">
+        <v>4</v>
+      </c>
+      <c r="H12" s="18">
+        <v>4</v>
+      </c>
+      <c r="I12" s="18">
+        <v>4</v>
+      </c>
+      <c r="J12" s="18">
+        <v>4</v>
+      </c>
+      <c r="K12" s="18">
+        <v>4</v>
+      </c>
+      <c r="L12" s="18">
+        <v>4</v>
+      </c>
+      <c r="M12" s="18">
+        <v>4</v>
+      </c>
+      <c r="N12" s="18">
+        <v>4</v>
+      </c>
+      <c r="O12" s="18">
+        <v>4</v>
+      </c>
+      <c r="P12" s="19">
+        <v>4</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="0"/>
+        <v>4,4,4,4,4,4,4,4,4,4,4,4,4,4,4,4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mechanism/assets/tilemapEDIT.xlsx
+++ b/Mechanism/assets/tilemapEDIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="7350" activeTab="1"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="19560" windowHeight="7350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tilemap" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -318,11 +318,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -347,6 +386,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1395,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,6 +2096,673 @@
         <v>4,4,4,4,4,4,4,4,4,4,4,4,4,4,4,4</v>
       </c>
     </row>
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="26"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>4</v>
+      </c>
+      <c r="B16" s="13">
+        <v>4</v>
+      </c>
+      <c r="C16" s="13">
+        <v>4</v>
+      </c>
+      <c r="D16" s="13">
+        <v>4</v>
+      </c>
+      <c r="E16" s="13">
+        <v>4</v>
+      </c>
+      <c r="F16" s="13">
+        <v>4</v>
+      </c>
+      <c r="G16" s="13">
+        <v>4</v>
+      </c>
+      <c r="H16" s="13">
+        <v>4</v>
+      </c>
+      <c r="I16" s="13">
+        <v>4</v>
+      </c>
+      <c r="J16" s="13">
+        <v>4</v>
+      </c>
+      <c r="K16" s="13">
+        <v>4</v>
+      </c>
+      <c r="L16" s="13">
+        <v>4</v>
+      </c>
+      <c r="M16" s="13">
+        <v>4</v>
+      </c>
+      <c r="N16" s="13">
+        <v>4</v>
+      </c>
+      <c r="O16" s="13">
+        <v>4</v>
+      </c>
+      <c r="P16" s="14">
+        <v>4</v>
+      </c>
+      <c r="R16" t="str">
+        <f>CONCATENATE(A16,",",B16,",",C16,",",D16,",",E16,",",F16,",",G16,",",H16,",",I16,",",J16,",",K16,",",L16,",",M16,",",N16,",",O16,",",P16)</f>
+        <v>4,4,4,4,4,4,4,4,4,4,4,4,4,4,4,4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>4</v>
+      </c>
+      <c r="B17" s="11">
+        <v>4</v>
+      </c>
+      <c r="C17" s="11">
+        <v>4</v>
+      </c>
+      <c r="D17" s="11">
+        <v>4</v>
+      </c>
+      <c r="E17" s="11">
+        <v>4</v>
+      </c>
+      <c r="F17" s="11">
+        <v>4</v>
+      </c>
+      <c r="G17" s="11">
+        <v>4</v>
+      </c>
+      <c r="H17" s="11">
+        <v>4</v>
+      </c>
+      <c r="I17" s="11">
+        <v>4</v>
+      </c>
+      <c r="J17" s="11">
+        <v>4</v>
+      </c>
+      <c r="K17" s="11">
+        <v>4</v>
+      </c>
+      <c r="L17" s="11">
+        <v>4</v>
+      </c>
+      <c r="M17" s="11">
+        <v>4</v>
+      </c>
+      <c r="N17" s="11">
+        <v>4</v>
+      </c>
+      <c r="O17" s="11">
+        <v>4</v>
+      </c>
+      <c r="P17" s="16">
+        <v>4</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" ref="R17:R27" si="1">CONCATENATE(A17,",",B17,",",C17,",",D17,",",E17,",",F17,",",G17,",",H17,",",I17,",",J17,",",K17,",",L17,",",M17,",",N17,",",O17,",",P17)</f>
+        <v>4,4,4,4,4,4,4,4,4,4,4,4,4,4,4,4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>4</v>
+      </c>
+      <c r="B18" s="11">
+        <v>4</v>
+      </c>
+      <c r="C18" s="11">
+        <v>4</v>
+      </c>
+      <c r="D18" s="11">
+        <v>4</v>
+      </c>
+      <c r="E18" s="11">
+        <v>4</v>
+      </c>
+      <c r="F18" s="11">
+        <v>4</v>
+      </c>
+      <c r="G18" s="11">
+        <v>4</v>
+      </c>
+      <c r="H18" s="11">
+        <v>4</v>
+      </c>
+      <c r="I18" s="11">
+        <v>4</v>
+      </c>
+      <c r="J18" s="11">
+        <v>4</v>
+      </c>
+      <c r="K18" s="11">
+        <v>4</v>
+      </c>
+      <c r="L18" s="11">
+        <v>4</v>
+      </c>
+      <c r="M18" s="11">
+        <v>4</v>
+      </c>
+      <c r="N18" s="11">
+        <v>4</v>
+      </c>
+      <c r="O18" s="11">
+        <v>4</v>
+      </c>
+      <c r="P18" s="16">
+        <v>4</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="1"/>
+        <v>4,4,4,4,4,4,4,4,4,4,4,4,4,4,4,4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>4</v>
+      </c>
+      <c r="B19" s="11">
+        <v>4</v>
+      </c>
+      <c r="C19" s="11">
+        <v>4</v>
+      </c>
+      <c r="D19" s="11">
+        <v>4</v>
+      </c>
+      <c r="E19" s="11">
+        <v>4</v>
+      </c>
+      <c r="F19" s="11">
+        <v>4</v>
+      </c>
+      <c r="G19" s="11">
+        <v>4</v>
+      </c>
+      <c r="H19" s="11">
+        <v>4</v>
+      </c>
+      <c r="I19" s="11">
+        <v>4</v>
+      </c>
+      <c r="J19" s="11">
+        <v>4</v>
+      </c>
+      <c r="K19" s="11">
+        <v>4</v>
+      </c>
+      <c r="L19" s="11">
+        <v>4</v>
+      </c>
+      <c r="M19" s="11">
+        <v>4</v>
+      </c>
+      <c r="N19" s="11">
+        <v>4</v>
+      </c>
+      <c r="O19" s="11">
+        <v>4</v>
+      </c>
+      <c r="P19" s="16">
+        <v>4</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="1"/>
+        <v>4,4,4,4,4,4,4,4,4,4,4,4,4,4,4,4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>4</v>
+      </c>
+      <c r="B20" s="11">
+        <v>4</v>
+      </c>
+      <c r="C20" s="11">
+        <v>4</v>
+      </c>
+      <c r="D20" s="11">
+        <v>4</v>
+      </c>
+      <c r="E20" s="12">
+        <v>12</v>
+      </c>
+      <c r="F20" s="13">
+        <v>12</v>
+      </c>
+      <c r="G20" s="13">
+        <v>12</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1</v>
+      </c>
+      <c r="I20" s="13">
+        <v>12</v>
+      </c>
+      <c r="J20" s="13">
+        <v>12</v>
+      </c>
+      <c r="K20" s="13">
+        <v>12</v>
+      </c>
+      <c r="L20" s="13">
+        <v>1</v>
+      </c>
+      <c r="M20" s="13">
+        <v>1</v>
+      </c>
+      <c r="N20" s="13">
+        <v>1</v>
+      </c>
+      <c r="O20" s="13">
+        <v>1</v>
+      </c>
+      <c r="P20" s="14">
+        <v>1</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="1"/>
+        <v>4,4,4,4,12,12,12,1,12,12,12,1,1,1,1,1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>4</v>
+      </c>
+      <c r="B21" s="11">
+        <v>4</v>
+      </c>
+      <c r="C21" s="11">
+        <v>4</v>
+      </c>
+      <c r="D21" s="11">
+        <v>4</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="11">
+        <v>2</v>
+      </c>
+      <c r="H21" s="11">
+        <v>1</v>
+      </c>
+      <c r="I21" s="11">
+        <v>12</v>
+      </c>
+      <c r="J21" s="11">
+        <v>12</v>
+      </c>
+      <c r="K21" s="11">
+        <v>12</v>
+      </c>
+      <c r="L21" s="11">
+        <v>1</v>
+      </c>
+      <c r="M21" s="11">
+        <v>1</v>
+      </c>
+      <c r="N21" s="11">
+        <v>1</v>
+      </c>
+      <c r="O21" s="11">
+        <v>1</v>
+      </c>
+      <c r="P21" s="16">
+        <v>1</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="1"/>
+        <v>4,4,4,4,1,1,2,1,12,12,12,1,1,1,1,1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>4</v>
+      </c>
+      <c r="B22" s="11">
+        <v>4</v>
+      </c>
+      <c r="C22" s="11">
+        <v>4</v>
+      </c>
+      <c r="D22" s="11">
+        <v>4</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1</v>
+      </c>
+      <c r="G22" s="11">
+        <v>2</v>
+      </c>
+      <c r="H22" s="11">
+        <v>1</v>
+      </c>
+      <c r="I22" s="11">
+        <v>12</v>
+      </c>
+      <c r="J22" s="11">
+        <v>1</v>
+      </c>
+      <c r="K22" s="11">
+        <v>2</v>
+      </c>
+      <c r="L22" s="11">
+        <v>1</v>
+      </c>
+      <c r="M22" s="11">
+        <v>1</v>
+      </c>
+      <c r="N22" s="11">
+        <v>2</v>
+      </c>
+      <c r="O22" s="11">
+        <v>12</v>
+      </c>
+      <c r="P22" s="16">
+        <v>2</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="1"/>
+        <v>4,4,4,4,1,1,2,1,12,1,2,1,1,2,12,2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>4</v>
+      </c>
+      <c r="B23" s="11">
+        <v>4</v>
+      </c>
+      <c r="C23" s="11">
+        <v>4</v>
+      </c>
+      <c r="D23" s="11">
+        <v>4</v>
+      </c>
+      <c r="E23" s="15">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11">
+        <v>1</v>
+      </c>
+      <c r="G23" s="11">
+        <v>2</v>
+      </c>
+      <c r="H23" s="11">
+        <v>1</v>
+      </c>
+      <c r="I23" s="11">
+        <v>12</v>
+      </c>
+      <c r="J23" s="11">
+        <v>1</v>
+      </c>
+      <c r="K23" s="11">
+        <v>2</v>
+      </c>
+      <c r="L23" s="11">
+        <v>1</v>
+      </c>
+      <c r="M23" s="11">
+        <v>1</v>
+      </c>
+      <c r="N23" s="11">
+        <v>2</v>
+      </c>
+      <c r="O23" s="11">
+        <v>12</v>
+      </c>
+      <c r="P23" s="16">
+        <v>2</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="1"/>
+        <v>4,4,4,4,1,1,2,1,12,1,2,1,1,2,12,2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>4</v>
+      </c>
+      <c r="B24" s="11">
+        <v>4</v>
+      </c>
+      <c r="C24" s="11">
+        <v>4</v>
+      </c>
+      <c r="D24" s="11">
+        <v>4</v>
+      </c>
+      <c r="E24" s="15">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11">
+        <v>2</v>
+      </c>
+      <c r="H24" s="11">
+        <v>1</v>
+      </c>
+      <c r="I24" s="11">
+        <v>2</v>
+      </c>
+      <c r="J24" s="11">
+        <v>1</v>
+      </c>
+      <c r="K24" s="11">
+        <v>2</v>
+      </c>
+      <c r="L24" s="11">
+        <v>1</v>
+      </c>
+      <c r="M24" s="11">
+        <v>1</v>
+      </c>
+      <c r="N24" s="11">
+        <v>12</v>
+      </c>
+      <c r="O24" s="11">
+        <v>1</v>
+      </c>
+      <c r="P24" s="16">
+        <v>12</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="1"/>
+        <v>4,4,4,4,1,1,2,1,2,1,2,1,1,12,1,12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>4</v>
+      </c>
+      <c r="B25" s="11">
+        <v>4</v>
+      </c>
+      <c r="C25" s="11">
+        <v>4</v>
+      </c>
+      <c r="D25" s="11">
+        <v>4</v>
+      </c>
+      <c r="E25" s="15">
+        <v>1</v>
+      </c>
+      <c r="F25" s="11">
+        <v>1</v>
+      </c>
+      <c r="G25" s="11">
+        <v>12</v>
+      </c>
+      <c r="H25" s="11">
+        <v>1</v>
+      </c>
+      <c r="I25" s="11">
+        <v>2</v>
+      </c>
+      <c r="J25" s="11">
+        <v>1</v>
+      </c>
+      <c r="K25" s="11">
+        <v>2</v>
+      </c>
+      <c r="L25" s="11">
+        <v>1</v>
+      </c>
+      <c r="M25" s="11">
+        <v>1</v>
+      </c>
+      <c r="N25" s="11">
+        <v>12</v>
+      </c>
+      <c r="O25" s="11">
+        <v>1</v>
+      </c>
+      <c r="P25" s="16">
+        <v>12</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="1"/>
+        <v>4,4,4,4,1,1,12,1,2,1,2,1,1,12,1,12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>4</v>
+      </c>
+      <c r="B26" s="11">
+        <v>4</v>
+      </c>
+      <c r="C26" s="11">
+        <v>4</v>
+      </c>
+      <c r="D26" s="11">
+        <v>4</v>
+      </c>
+      <c r="E26" s="15">
+        <v>1</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1</v>
+      </c>
+      <c r="G26" s="11">
+        <v>12</v>
+      </c>
+      <c r="H26" s="11">
+        <v>1</v>
+      </c>
+      <c r="I26" s="11">
+        <v>12</v>
+      </c>
+      <c r="J26" s="11">
+        <v>1</v>
+      </c>
+      <c r="K26" s="11">
+        <v>2</v>
+      </c>
+      <c r="L26" s="11">
+        <v>12</v>
+      </c>
+      <c r="M26" s="11">
+        <v>12</v>
+      </c>
+      <c r="N26" s="11">
+        <v>2</v>
+      </c>
+      <c r="O26" s="11">
+        <v>1</v>
+      </c>
+      <c r="P26" s="16">
+        <v>12</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="1"/>
+        <v>4,4,4,4,1,1,12,1,12,1,2,12,12,2,1,12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
+        <v>4</v>
+      </c>
+      <c r="B27" s="18">
+        <v>4</v>
+      </c>
+      <c r="C27" s="18">
+        <v>4</v>
+      </c>
+      <c r="D27" s="18">
+        <v>4</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1</v>
+      </c>
+      <c r="G27" s="18">
+        <v>12</v>
+      </c>
+      <c r="H27" s="18">
+        <v>12</v>
+      </c>
+      <c r="I27" s="18">
+        <v>12</v>
+      </c>
+      <c r="J27" s="18">
+        <v>1</v>
+      </c>
+      <c r="K27" s="18">
+        <v>2</v>
+      </c>
+      <c r="L27" s="18">
+        <v>12</v>
+      </c>
+      <c r="M27" s="18">
+        <v>12</v>
+      </c>
+      <c r="N27" s="18">
+        <v>2</v>
+      </c>
+      <c r="O27" s="18">
+        <v>1</v>
+      </c>
+      <c r="P27" s="19">
+        <v>12</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="1"/>
+        <v>4,4,4,4,1,1,12,12,12,1,2,12,12,2,1,12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mechanism/assets/tilemapEDIT.xlsx
+++ b/Mechanism/assets/tilemapEDIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="19560" windowHeight="7350" activeTab="1"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="19560" windowHeight="7350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tilemap" sheetId="1" r:id="rId1"/>
@@ -1439,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16:R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2331,7 +2331,7 @@
         <v>4,4,4,4,4,4,4,4,4,4,4,4,4,4,4,4</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>4</v>
       </c>
@@ -2357,35 +2357,35 @@
         <v>1</v>
       </c>
       <c r="I20" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J20" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K20" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L20" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M20" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N20" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="O20" s="13">
-        <v>1</v>
-      </c>
-      <c r="P20" s="14">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="P20" s="13">
+        <v>13</v>
       </c>
       <c r="R20" t="str">
         <f t="shared" si="1"/>
-        <v>4,4,4,4,12,12,12,1,12,12,12,1,1,1,1,1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4,4,4,4,12,12,12,1,13,13,13,13,13,13,13,13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>4</v>
       </c>
@@ -2410,36 +2410,36 @@
       <c r="H21" s="11">
         <v>1</v>
       </c>
-      <c r="I21" s="11">
-        <v>12</v>
-      </c>
-      <c r="J21" s="11">
-        <v>12</v>
-      </c>
-      <c r="K21" s="11">
-        <v>12</v>
-      </c>
-      <c r="L21" s="11">
-        <v>1</v>
-      </c>
-      <c r="M21" s="11">
-        <v>1</v>
-      </c>
-      <c r="N21" s="11">
-        <v>1</v>
-      </c>
-      <c r="O21" s="11">
-        <v>1</v>
-      </c>
-      <c r="P21" s="16">
-        <v>1</v>
+      <c r="I21" s="13">
+        <v>13</v>
+      </c>
+      <c r="J21" s="13">
+        <v>13</v>
+      </c>
+      <c r="K21" s="13">
+        <v>13</v>
+      </c>
+      <c r="L21" s="13">
+        <v>13</v>
+      </c>
+      <c r="M21" s="13">
+        <v>13</v>
+      </c>
+      <c r="N21" s="13">
+        <v>13</v>
+      </c>
+      <c r="O21" s="13">
+        <v>13</v>
+      </c>
+      <c r="P21" s="13">
+        <v>13</v>
       </c>
       <c r="R21" t="str">
         <f t="shared" si="1"/>
-        <v>4,4,4,4,1,1,2,1,12,12,12,1,1,1,1,1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4,4,4,4,1,1,2,1,13,13,13,13,13,13,13,13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>4</v>
       </c>
@@ -2464,36 +2464,36 @@
       <c r="H22" s="11">
         <v>1</v>
       </c>
-      <c r="I22" s="11">
-        <v>12</v>
-      </c>
-      <c r="J22" s="11">
-        <v>1</v>
-      </c>
-      <c r="K22" s="11">
-        <v>2</v>
-      </c>
-      <c r="L22" s="11">
-        <v>1</v>
-      </c>
-      <c r="M22" s="11">
-        <v>1</v>
-      </c>
-      <c r="N22" s="11">
-        <v>2</v>
-      </c>
-      <c r="O22" s="11">
-        <v>12</v>
-      </c>
-      <c r="P22" s="16">
-        <v>2</v>
+      <c r="I22" s="13">
+        <v>13</v>
+      </c>
+      <c r="J22" s="13">
+        <v>13</v>
+      </c>
+      <c r="K22" s="13">
+        <v>13</v>
+      </c>
+      <c r="L22" s="13">
+        <v>13</v>
+      </c>
+      <c r="M22" s="13">
+        <v>13</v>
+      </c>
+      <c r="N22" s="13">
+        <v>13</v>
+      </c>
+      <c r="O22" s="13">
+        <v>13</v>
+      </c>
+      <c r="P22" s="13">
+        <v>13</v>
       </c>
       <c r="R22" t="str">
         <f t="shared" si="1"/>
-        <v>4,4,4,4,1,1,2,1,12,1,2,1,1,2,12,2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4,4,4,4,1,1,2,1,13,13,13,13,13,13,13,13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>4</v>
       </c>
@@ -2518,36 +2518,36 @@
       <c r="H23" s="11">
         <v>1</v>
       </c>
-      <c r="I23" s="11">
-        <v>12</v>
-      </c>
-      <c r="J23" s="11">
-        <v>1</v>
-      </c>
-      <c r="K23" s="11">
-        <v>2</v>
-      </c>
-      <c r="L23" s="11">
-        <v>1</v>
-      </c>
-      <c r="M23" s="11">
-        <v>1</v>
-      </c>
-      <c r="N23" s="11">
-        <v>2</v>
-      </c>
-      <c r="O23" s="11">
-        <v>12</v>
-      </c>
-      <c r="P23" s="16">
-        <v>2</v>
+      <c r="I23" s="13">
+        <v>13</v>
+      </c>
+      <c r="J23" s="13">
+        <v>13</v>
+      </c>
+      <c r="K23" s="13">
+        <v>13</v>
+      </c>
+      <c r="L23" s="13">
+        <v>13</v>
+      </c>
+      <c r="M23" s="13">
+        <v>13</v>
+      </c>
+      <c r="N23" s="13">
+        <v>13</v>
+      </c>
+      <c r="O23" s="13">
+        <v>13</v>
+      </c>
+      <c r="P23" s="13">
+        <v>13</v>
       </c>
       <c r="R23" t="str">
         <f t="shared" si="1"/>
-        <v>4,4,4,4,1,1,2,1,12,1,2,1,1,2,12,2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4,4,4,4,1,1,2,1,13,13,13,13,13,13,13,13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>4</v>
       </c>
@@ -2572,36 +2572,36 @@
       <c r="H24" s="11">
         <v>1</v>
       </c>
-      <c r="I24" s="11">
-        <v>2</v>
-      </c>
-      <c r="J24" s="11">
-        <v>1</v>
-      </c>
-      <c r="K24" s="11">
-        <v>2</v>
-      </c>
-      <c r="L24" s="11">
-        <v>1</v>
-      </c>
-      <c r="M24" s="11">
-        <v>1</v>
-      </c>
-      <c r="N24" s="11">
-        <v>12</v>
-      </c>
-      <c r="O24" s="11">
-        <v>1</v>
-      </c>
-      <c r="P24" s="16">
-        <v>12</v>
+      <c r="I24" s="13">
+        <v>13</v>
+      </c>
+      <c r="J24" s="13">
+        <v>13</v>
+      </c>
+      <c r="K24" s="13">
+        <v>13</v>
+      </c>
+      <c r="L24" s="13">
+        <v>13</v>
+      </c>
+      <c r="M24" s="13">
+        <v>13</v>
+      </c>
+      <c r="N24" s="13">
+        <v>13</v>
+      </c>
+      <c r="O24" s="13">
+        <v>13</v>
+      </c>
+      <c r="P24" s="13">
+        <v>13</v>
       </c>
       <c r="R24" t="str">
         <f t="shared" si="1"/>
-        <v>4,4,4,4,1,1,2,1,2,1,2,1,1,12,1,12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4,4,4,4,1,1,2,1,13,13,13,13,13,13,13,13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>4</v>
       </c>
@@ -2626,36 +2626,36 @@
       <c r="H25" s="11">
         <v>1</v>
       </c>
-      <c r="I25" s="11">
-        <v>2</v>
-      </c>
-      <c r="J25" s="11">
-        <v>1</v>
-      </c>
-      <c r="K25" s="11">
-        <v>2</v>
-      </c>
-      <c r="L25" s="11">
-        <v>1</v>
-      </c>
-      <c r="M25" s="11">
-        <v>1</v>
-      </c>
-      <c r="N25" s="11">
-        <v>12</v>
-      </c>
-      <c r="O25" s="11">
-        <v>1</v>
-      </c>
-      <c r="P25" s="16">
-        <v>12</v>
+      <c r="I25" s="13">
+        <v>13</v>
+      </c>
+      <c r="J25" s="13">
+        <v>13</v>
+      </c>
+      <c r="K25" s="13">
+        <v>13</v>
+      </c>
+      <c r="L25" s="13">
+        <v>13</v>
+      </c>
+      <c r="M25" s="13">
+        <v>13</v>
+      </c>
+      <c r="N25" s="13">
+        <v>13</v>
+      </c>
+      <c r="O25" s="13">
+        <v>13</v>
+      </c>
+      <c r="P25" s="13">
+        <v>13</v>
       </c>
       <c r="R25" t="str">
         <f t="shared" si="1"/>
-        <v>4,4,4,4,1,1,12,1,2,1,2,1,1,12,1,12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4,4,4,4,1,1,12,1,13,13,13,13,13,13,13,13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>4</v>
       </c>
@@ -2680,33 +2680,33 @@
       <c r="H26" s="11">
         <v>1</v>
       </c>
-      <c r="I26" s="11">
-        <v>12</v>
-      </c>
-      <c r="J26" s="11">
-        <v>1</v>
-      </c>
-      <c r="K26" s="11">
-        <v>2</v>
-      </c>
-      <c r="L26" s="11">
-        <v>12</v>
-      </c>
-      <c r="M26" s="11">
-        <v>12</v>
-      </c>
-      <c r="N26" s="11">
-        <v>2</v>
-      </c>
-      <c r="O26" s="11">
-        <v>1</v>
-      </c>
-      <c r="P26" s="16">
-        <v>12</v>
+      <c r="I26" s="13">
+        <v>13</v>
+      </c>
+      <c r="J26" s="13">
+        <v>13</v>
+      </c>
+      <c r="K26" s="13">
+        <v>13</v>
+      </c>
+      <c r="L26" s="13">
+        <v>13</v>
+      </c>
+      <c r="M26" s="13">
+        <v>13</v>
+      </c>
+      <c r="N26" s="13">
+        <v>13</v>
+      </c>
+      <c r="O26" s="13">
+        <v>13</v>
+      </c>
+      <c r="P26" s="13">
+        <v>13</v>
       </c>
       <c r="R26" t="str">
         <f t="shared" si="1"/>
-        <v>4,4,4,4,1,1,12,1,12,1,2,12,12,2,1,12</v>
+        <v>4,4,4,4,1,1,12,1,13,13,13,13,13,13,13,13</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2734,33 +2734,33 @@
       <c r="H27" s="18">
         <v>12</v>
       </c>
-      <c r="I27" s="18">
-        <v>12</v>
-      </c>
-      <c r="J27" s="18">
-        <v>1</v>
-      </c>
-      <c r="K27" s="18">
-        <v>2</v>
-      </c>
-      <c r="L27" s="18">
-        <v>12</v>
-      </c>
-      <c r="M27" s="18">
-        <v>12</v>
-      </c>
-      <c r="N27" s="18">
-        <v>2</v>
-      </c>
-      <c r="O27" s="18">
-        <v>1</v>
-      </c>
-      <c r="P27" s="19">
-        <v>12</v>
+      <c r="I27" s="13">
+        <v>13</v>
+      </c>
+      <c r="J27" s="13">
+        <v>13</v>
+      </c>
+      <c r="K27" s="13">
+        <v>13</v>
+      </c>
+      <c r="L27" s="13">
+        <v>13</v>
+      </c>
+      <c r="M27" s="13">
+        <v>13</v>
+      </c>
+      <c r="N27" s="13">
+        <v>13</v>
+      </c>
+      <c r="O27" s="13">
+        <v>13</v>
+      </c>
+      <c r="P27" s="13">
+        <v>13</v>
       </c>
       <c r="R27" t="str">
         <f t="shared" si="1"/>
-        <v>4,4,4,4,1,1,12,12,12,1,2,12,12,2,1,12</v>
+        <v>4,4,4,4,1,1,12,12,13,13,13,13,13,13,13,13</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanism/assets/tilemapEDIT.xlsx
+++ b/Mechanism/assets/tilemapEDIT.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\phaser\Mechanism\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="19560" windowHeight="7350" activeTab="1"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="19560" windowHeight="7350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tilemap" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="big map" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +44,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -357,11 +358,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -389,6 +429,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,6 +712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1437,29 +1481,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16:R27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19:X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16" width="3.7109375" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="12">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1" s="13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C1" s="13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D1" s="22">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E1" s="12">
         <v>12</v>
@@ -1499,21 +1545,21 @@
       </c>
       <c r="R1" t="str">
         <f>CONCATENATE(A1,",",B1,",",C1,",",D1,",",E1,",",F1,",",G1,",",H1,",",I1,",",J1,",",K1,",",L1,",",M1,",",N1,",",O1,",",P1)</f>
-        <v>4,4,4,4,12,12,12,1,12,12,12,1,1,1,1,1</v>
+        <v>11,11,11,11,12,12,12,1,12,12,12,1,1,1,1,1</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D2" s="23">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E2" s="15">
         <v>1</v>
@@ -1553,21 +1599,21 @@
       </c>
       <c r="R2" t="str">
         <f t="shared" ref="R2:R12" si="0">CONCATENATE(A2,",",B2,",",C2,",",D2,",",E2,",",F2,",",G2,",",H2,",",I2,",",J2,",",K2,",",L2,",",M2,",",N2,",",O2,",",P2)</f>
-        <v>4,4,4,4,1,1,2,1,12,12,12,1,1,1,1,1</v>
+        <v>11,11,11,11,1,1,2,1,12,12,12,1,1,1,1,1</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D3" s="23">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E3" s="15">
         <v>1</v>
@@ -1607,21 +1653,21 @@
       </c>
       <c r="R3" t="str">
         <f t="shared" si="0"/>
-        <v>4,4,4,4,1,1,2,1,12,1,2,1,1,2,12,2</v>
+        <v>11,11,11,11,1,1,2,1,12,1,2,1,1,2,12,2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C4" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D4" s="23">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E4" s="15">
         <v>1</v>
@@ -1660,22 +1706,22 @@
         <v>2</v>
       </c>
       <c r="R4" t="str">
-        <f t="shared" si="0"/>
-        <v>4,4,4,4,1,1,2,1,12,1,2,1,1,2,12,2</v>
+        <f>CONCATENATE(A11,",",B11,",",C11,",",D11,",",E11,",",F11,",",G11,",",H11,",",I11,",",J11,",",K11,",",L11,",",M11,",",N11,",",O11,",",P11)</f>
+        <v>11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D5" s="23">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E5" s="15">
         <v>1</v>
@@ -1715,21 +1761,21 @@
       </c>
       <c r="R5" t="str">
         <f t="shared" si="0"/>
-        <v>4,4,4,4,1,1,2,1,2,1,2,1,1,12,1,12</v>
+        <v>11,11,11,11,1,1,2,1,2,1,2,1,1,12,1,12</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C6" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D6" s="23">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E6" s="15">
         <v>1</v>
@@ -1769,21 +1815,21 @@
       </c>
       <c r="R6" t="str">
         <f t="shared" si="0"/>
-        <v>4,4,4,4,1,1,12,1,2,1,2,1,1,12,1,12</v>
+        <v>11,11,11,11,1,1,12,1,2,1,2,1,1,12,1,12</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B7" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C7" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D7" s="23">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E7" s="15">
         <v>1</v>
@@ -1823,21 +1869,21 @@
       </c>
       <c r="R7" t="str">
         <f t="shared" si="0"/>
-        <v>4,4,4,4,1,1,12,1,12,1,2,12,12,2,1,12</v>
+        <v>11,11,11,11,1,1,12,1,12,1,2,12,12,2,1,12</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B8" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C8" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D8" s="23">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E8" s="17">
         <v>1</v>
@@ -1877,223 +1923,223 @@
       </c>
       <c r="R8" t="str">
         <f t="shared" si="0"/>
-        <v>4,4,4,4,1,1,12,12,12,1,2,12,12,2,1,12</v>
+        <v>11,11,11,11,1,1,12,12,12,1,2,12,12,2,1,12</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B9" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C9" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D9" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E9" s="20">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F9" s="20">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G9" s="20">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H9" s="20">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I9" s="20">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J9" s="20">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K9" s="20">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L9" s="20">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M9" s="20">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N9" s="20">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O9" s="20">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P9" s="21">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R9" t="str">
         <f t="shared" si="0"/>
-        <v>4,4,4,4,4,4,4,4,4,4,4,4,4,4,4,4</v>
+        <v>11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B10" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C10" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D10" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E10" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F10" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G10" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H10" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I10" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J10" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K10" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L10" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M10" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N10" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O10" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P10" s="16">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R10" t="str">
         <f t="shared" si="0"/>
-        <v>4,4,4,4,4,4,4,4,4,4,4,4,4,4,4,4</v>
+        <v>11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B11" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C11" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D11" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E11" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F11" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G11" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H11" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I11" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J11" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K11" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L11" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M11" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N11" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O11" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P11" s="16">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R11" t="str">
         <f t="shared" si="0"/>
-        <v>4,4,4,4,4,4,4,4,4,4,4,4,4,4,4,4</v>
+        <v>11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B12" s="18">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C12" s="18">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D12" s="18">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E12" s="18">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F12" s="18">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G12" s="18">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H12" s="18">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I12" s="18">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J12" s="18">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K12" s="18">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L12" s="18">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M12" s="18">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N12" s="18">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O12" s="18">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P12" s="19">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R12" t="str">
         <f t="shared" si="0"/>
-        <v>4,4,4,4,4,4,4,4,4,4,4,4,4,4,4,4</v>
+        <v>11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2117,650 +2163,2466 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B16" s="13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C16" s="13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D16" s="13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E16" s="13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F16" s="13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G16" s="13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H16" s="13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I16" s="13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J16" s="13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K16" s="13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L16" s="13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M16" s="13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N16" s="13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O16" s="13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P16" s="14">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R16" t="str">
         <f>CONCATENATE(A16,",",B16,",",C16,",",D16,",",E16,",",F16,",",G16,",",H16,",",I16,",",J16,",",K16,",",L16,",",M16,",",N16,",",O16,",",P16)</f>
-        <v>4,4,4,4,4,4,4,4,4,4,4,4,4,4,4,4</v>
+        <v>11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B17" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C17" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D17" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E17" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F17" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G17" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H17" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I17" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J17" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K17" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L17" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M17" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N17" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O17" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P17" s="16">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R17" t="str">
         <f t="shared" ref="R17:R27" si="1">CONCATENATE(A17,",",B17,",",C17,",",D17,",",E17,",",F17,",",G17,",",H17,",",I17,",",J17,",",K17,",",L17,",",M17,",",N17,",",O17,",",P17)</f>
-        <v>4,4,4,4,4,4,4,4,4,4,4,4,4,4,4,4</v>
+        <v>11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B18" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C18" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D18" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E18" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F18" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G18" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H18" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I18" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J18" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K18" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L18" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M18" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N18" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O18" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P18" s="16">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R18" t="str">
         <f t="shared" si="1"/>
-        <v>4,4,4,4,4,4,4,4,4,4,4,4,4,4,4,4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B19" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C19" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D19" s="11">
-        <v>4</v>
-      </c>
-      <c r="E19" s="11">
-        <v>4</v>
-      </c>
-      <c r="F19" s="11">
-        <v>4</v>
-      </c>
-      <c r="G19" s="11">
-        <v>4</v>
-      </c>
-      <c r="H19" s="11">
-        <v>4</v>
-      </c>
-      <c r="I19" s="11">
-        <v>4</v>
-      </c>
-      <c r="J19" s="11">
-        <v>4</v>
-      </c>
-      <c r="K19" s="11">
-        <v>4</v>
-      </c>
-      <c r="L19" s="11">
-        <v>4</v>
-      </c>
-      <c r="M19" s="11">
-        <v>4</v>
-      </c>
-      <c r="N19" s="11">
-        <v>4</v>
-      </c>
-      <c r="O19" s="11">
-        <v>4</v>
-      </c>
-      <c r="P19" s="16">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="E19" s="28">
+        <v>11</v>
+      </c>
+      <c r="F19" s="28">
+        <v>11</v>
+      </c>
+      <c r="G19" s="28">
+        <v>11</v>
+      </c>
+      <c r="H19" s="28">
+        <v>11</v>
+      </c>
+      <c r="I19" s="28">
+        <v>11</v>
+      </c>
+      <c r="J19" s="28">
+        <v>11</v>
+      </c>
+      <c r="K19" s="28">
+        <v>11</v>
+      </c>
+      <c r="L19" s="28">
+        <v>11</v>
+      </c>
+      <c r="M19" s="28">
+        <v>11</v>
+      </c>
+      <c r="N19" s="28">
+        <v>11</v>
+      </c>
+      <c r="O19" s="28">
+        <v>11</v>
+      </c>
+      <c r="P19" s="29">
+        <v>11</v>
       </c>
       <c r="R19" t="str">
         <f t="shared" si="1"/>
-        <v>4,4,4,4,4,4,4,4,4,4,4,4,4,4,4,4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11,11,11,11,11,11,11,11,11,11,11,11,11,11,11,11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B20" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C20" s="11">
-        <v>4</v>
-      </c>
-      <c r="D20" s="11">
-        <v>4</v>
-      </c>
-      <c r="E20" s="12">
-        <v>12</v>
-      </c>
-      <c r="F20" s="13">
-        <v>12</v>
-      </c>
-      <c r="G20" s="13">
-        <v>12</v>
-      </c>
-      <c r="H20" s="13">
-        <v>1</v>
-      </c>
-      <c r="I20" s="13">
-        <v>13</v>
-      </c>
-      <c r="J20" s="13">
-        <v>13</v>
-      </c>
-      <c r="K20" s="13">
-        <v>13</v>
-      </c>
-      <c r="L20" s="13">
-        <v>13</v>
-      </c>
-      <c r="M20" s="13">
-        <v>13</v>
-      </c>
-      <c r="N20" s="13">
-        <v>13</v>
-      </c>
-      <c r="O20" s="13">
-        <v>13</v>
-      </c>
-      <c r="P20" s="13">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D20" s="23">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>12</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>12</v>
+      </c>
+      <c r="J20">
+        <v>12</v>
+      </c>
+      <c r="K20">
+        <v>12</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
       </c>
       <c r="R20" t="str">
         <f t="shared" si="1"/>
-        <v>4,4,4,4,12,12,12,1,13,13,13,13,13,13,13,13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11,11,11,11,12,12,12,1,12,12,12,1,1,1,1,1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B21" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C21" s="11">
-        <v>4</v>
-      </c>
-      <c r="D21" s="11">
-        <v>4</v>
-      </c>
-      <c r="E21" s="15">
-        <v>1</v>
-      </c>
-      <c r="F21" s="11">
-        <v>1</v>
-      </c>
-      <c r="G21" s="11">
-        <v>2</v>
-      </c>
-      <c r="H21" s="11">
-        <v>1</v>
-      </c>
-      <c r="I21" s="13">
-        <v>13</v>
-      </c>
-      <c r="J21" s="13">
-        <v>13</v>
-      </c>
-      <c r="K21" s="13">
-        <v>13</v>
-      </c>
-      <c r="L21" s="13">
-        <v>13</v>
-      </c>
-      <c r="M21" s="13">
-        <v>13</v>
-      </c>
-      <c r="N21" s="13">
-        <v>13</v>
-      </c>
-      <c r="O21" s="13">
-        <v>13</v>
-      </c>
-      <c r="P21" s="13">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D21" s="23">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>12</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>12</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
       </c>
       <c r="R21" t="str">
         <f t="shared" si="1"/>
-        <v>4,4,4,4,1,1,2,1,13,13,13,13,13,13,13,13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11,11,11,11,1,1,2,1,2,1,12,1,1,12,2,2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B22" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C22" s="11">
-        <v>4</v>
-      </c>
-      <c r="D22" s="11">
-        <v>4</v>
-      </c>
-      <c r="E22" s="15">
-        <v>1</v>
-      </c>
-      <c r="F22" s="11">
-        <v>1</v>
-      </c>
-      <c r="G22" s="11">
-        <v>2</v>
-      </c>
-      <c r="H22" s="11">
-        <v>1</v>
-      </c>
-      <c r="I22" s="13">
-        <v>13</v>
-      </c>
-      <c r="J22" s="13">
-        <v>13</v>
-      </c>
-      <c r="K22" s="13">
-        <v>13</v>
-      </c>
-      <c r="L22" s="13">
-        <v>13</v>
-      </c>
-      <c r="M22" s="13">
-        <v>13</v>
-      </c>
-      <c r="N22" s="13">
-        <v>13</v>
-      </c>
-      <c r="O22" s="13">
-        <v>13</v>
-      </c>
-      <c r="P22" s="13">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D22" s="23">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>12</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
       </c>
       <c r="R22" t="str">
         <f t="shared" si="1"/>
-        <v>4,4,4,4,1,1,2,1,13,13,13,13,13,13,13,13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11,11,11,11,1,1,2,1,2,1,2,1,1,12,1,2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B23" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C23" s="11">
-        <v>4</v>
-      </c>
-      <c r="D23" s="11">
-        <v>4</v>
-      </c>
-      <c r="E23" s="15">
-        <v>1</v>
-      </c>
-      <c r="F23" s="11">
-        <v>1</v>
-      </c>
-      <c r="G23" s="11">
-        <v>2</v>
-      </c>
-      <c r="H23" s="11">
-        <v>1</v>
-      </c>
-      <c r="I23" s="13">
-        <v>13</v>
-      </c>
-      <c r="J23" s="13">
-        <v>13</v>
-      </c>
-      <c r="K23" s="13">
-        <v>13</v>
-      </c>
-      <c r="L23" s="13">
-        <v>13</v>
-      </c>
-      <c r="M23" s="13">
-        <v>13</v>
-      </c>
-      <c r="N23" s="13">
-        <v>13</v>
-      </c>
-      <c r="O23" s="13">
-        <v>13</v>
-      </c>
-      <c r="P23" s="13">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D23" s="23">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>12</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
       </c>
       <c r="R23" t="str">
         <f t="shared" si="1"/>
-        <v>4,4,4,4,1,1,2,1,13,13,13,13,13,13,13,13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11,11,11,11,1,1,2,1,2,1,2,1,1,12,1,2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B24" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C24" s="11">
-        <v>4</v>
-      </c>
-      <c r="D24" s="11">
-        <v>4</v>
-      </c>
-      <c r="E24" s="15">
-        <v>1</v>
-      </c>
-      <c r="F24" s="11">
-        <v>1</v>
-      </c>
-      <c r="G24" s="11">
-        <v>2</v>
-      </c>
-      <c r="H24" s="11">
-        <v>1</v>
-      </c>
-      <c r="I24" s="13">
-        <v>13</v>
-      </c>
-      <c r="J24" s="13">
-        <v>13</v>
-      </c>
-      <c r="K24" s="13">
-        <v>13</v>
-      </c>
-      <c r="L24" s="13">
-        <v>13</v>
-      </c>
-      <c r="M24" s="13">
-        <v>13</v>
-      </c>
-      <c r="N24" s="13">
-        <v>13</v>
-      </c>
-      <c r="O24" s="13">
-        <v>13</v>
-      </c>
-      <c r="P24" s="13">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D24" s="23">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>12</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>12</v>
       </c>
       <c r="R24" t="str">
         <f t="shared" si="1"/>
-        <v>4,4,4,4,1,1,2,1,13,13,13,13,13,13,13,13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11,11,11,11,1,1,2,1,2,1,2,1,1,12,1,12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B25" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C25" s="11">
-        <v>4</v>
-      </c>
-      <c r="D25" s="11">
-        <v>4</v>
-      </c>
-      <c r="E25" s="15">
-        <v>1</v>
-      </c>
-      <c r="F25" s="11">
-        <v>1</v>
-      </c>
-      <c r="G25" s="11">
-        <v>12</v>
-      </c>
-      <c r="H25" s="11">
-        <v>1</v>
-      </c>
-      <c r="I25" s="13">
-        <v>13</v>
-      </c>
-      <c r="J25" s="13">
-        <v>13</v>
-      </c>
-      <c r="K25" s="13">
-        <v>13</v>
-      </c>
-      <c r="L25" s="13">
-        <v>13</v>
-      </c>
-      <c r="M25" s="13">
-        <v>13</v>
-      </c>
-      <c r="N25" s="13">
-        <v>13</v>
-      </c>
-      <c r="O25" s="13">
-        <v>13</v>
-      </c>
-      <c r="P25" s="13">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D25" s="23">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>12</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>12</v>
       </c>
       <c r="R25" t="str">
         <f t="shared" si="1"/>
-        <v>4,4,4,4,1,1,12,1,13,13,13,13,13,13,13,13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11,11,11,11,1,1,12,1,12,1,2,1,1,2,1,12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B26" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C26" s="11">
-        <v>4</v>
-      </c>
-      <c r="D26" s="11">
-        <v>4</v>
-      </c>
-      <c r="E26" s="15">
-        <v>1</v>
-      </c>
-      <c r="F26" s="11">
-        <v>1</v>
-      </c>
-      <c r="G26" s="11">
-        <v>12</v>
-      </c>
-      <c r="H26" s="11">
-        <v>1</v>
-      </c>
-      <c r="I26" s="13">
-        <v>13</v>
-      </c>
-      <c r="J26" s="13">
-        <v>13</v>
-      </c>
-      <c r="K26" s="13">
-        <v>13</v>
-      </c>
-      <c r="L26" s="13">
-        <v>13</v>
-      </c>
-      <c r="M26" s="13">
-        <v>13</v>
-      </c>
-      <c r="N26" s="13">
-        <v>13</v>
-      </c>
-      <c r="O26" s="13">
-        <v>13</v>
-      </c>
-      <c r="P26" s="13">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D26" s="23">
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>12</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>12</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>12</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>12</v>
       </c>
       <c r="R26" t="str">
         <f t="shared" si="1"/>
-        <v>4,4,4,4,1,1,12,1,13,13,13,13,13,13,13,13</v>
+        <v>11,11,11,11,1,1,12,1,12,1,12,1,1,2,1,12</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B27" s="18">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C27" s="18">
-        <v>4</v>
-      </c>
-      <c r="D27" s="18">
-        <v>4</v>
-      </c>
-      <c r="E27" s="17">
-        <v>1</v>
-      </c>
-      <c r="F27" s="18">
-        <v>1</v>
-      </c>
-      <c r="G27" s="18">
-        <v>12</v>
-      </c>
-      <c r="H27" s="18">
-        <v>12</v>
-      </c>
-      <c r="I27" s="13">
-        <v>13</v>
-      </c>
-      <c r="J27" s="13">
-        <v>13</v>
-      </c>
-      <c r="K27" s="13">
-        <v>13</v>
-      </c>
-      <c r="L27" s="13">
-        <v>13</v>
-      </c>
-      <c r="M27" s="13">
-        <v>13</v>
-      </c>
-      <c r="N27" s="13">
-        <v>13</v>
-      </c>
-      <c r="O27" s="13">
-        <v>13</v>
-      </c>
-      <c r="P27" s="13">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D27" s="27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <v>12</v>
+      </c>
+      <c r="I27">
+        <v>12</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>12</v>
+      </c>
+      <c r="L27">
+        <v>12</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>12</v>
       </c>
       <c r="R27" t="str">
         <f t="shared" si="1"/>
-        <v>4,4,4,4,1,1,12,12,13,13,13,13,13,13,13,13</v>
+        <v>11,11,11,11,1,1,12,12,12,1,12,12,2,2,1,12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:P38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31:P38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>11</v>
+      </c>
+      <c r="B1">
+        <v>11</v>
+      </c>
+      <c r="C1">
+        <v>11</v>
+      </c>
+      <c r="D1">
+        <v>11</v>
+      </c>
+      <c r="E1">
+        <v>11</v>
+      </c>
+      <c r="F1">
+        <v>11</v>
+      </c>
+      <c r="G1">
+        <v>11</v>
+      </c>
+      <c r="H1">
+        <v>11</v>
+      </c>
+      <c r="I1">
+        <v>11</v>
+      </c>
+      <c r="J1">
+        <v>11</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>11</v>
+      </c>
+      <c r="O1">
+        <v>11</v>
+      </c>
+      <c r="P1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>11</v>
+      </c>
+      <c r="O2">
+        <v>11</v>
+      </c>
+      <c r="P2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>11</v>
+      </c>
+      <c r="O3">
+        <v>11</v>
+      </c>
+      <c r="P3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <v>11</v>
+      </c>
+      <c r="O4">
+        <v>11</v>
+      </c>
+      <c r="P4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>13</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <v>13</v>
+      </c>
+      <c r="M5">
+        <v>13</v>
+      </c>
+      <c r="N5">
+        <v>13</v>
+      </c>
+      <c r="O5">
+        <v>13</v>
+      </c>
+      <c r="P5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <v>13</v>
+      </c>
+      <c r="N6">
+        <v>13</v>
+      </c>
+      <c r="O6">
+        <v>13</v>
+      </c>
+      <c r="P6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>13</v>
+      </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>13</v>
+      </c>
+      <c r="L7">
+        <v>13</v>
+      </c>
+      <c r="M7">
+        <v>13</v>
+      </c>
+      <c r="N7">
+        <v>13</v>
+      </c>
+      <c r="O7">
+        <v>13</v>
+      </c>
+      <c r="P7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>13</v>
+      </c>
+      <c r="K8">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <v>13</v>
+      </c>
+      <c r="M8">
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <v>13</v>
+      </c>
+      <c r="O8">
+        <v>13</v>
+      </c>
+      <c r="P8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <v>13</v>
+      </c>
+      <c r="M9">
+        <v>13</v>
+      </c>
+      <c r="N9">
+        <v>13</v>
+      </c>
+      <c r="O9">
+        <v>13</v>
+      </c>
+      <c r="P9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <v>13</v>
+      </c>
+      <c r="L10">
+        <v>13</v>
+      </c>
+      <c r="M10">
+        <v>13</v>
+      </c>
+      <c r="N10">
+        <v>13</v>
+      </c>
+      <c r="O10">
+        <v>13</v>
+      </c>
+      <c r="P10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>13</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+      <c r="K11">
+        <v>13</v>
+      </c>
+      <c r="L11">
+        <v>13</v>
+      </c>
+      <c r="M11">
+        <v>13</v>
+      </c>
+      <c r="N11">
+        <v>13</v>
+      </c>
+      <c r="O11">
+        <v>13</v>
+      </c>
+      <c r="P11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>13</v>
+      </c>
+      <c r="L12">
+        <v>13</v>
+      </c>
+      <c r="M12">
+        <v>13</v>
+      </c>
+      <c r="N12">
+        <v>13</v>
+      </c>
+      <c r="O12">
+        <v>13</v>
+      </c>
+      <c r="P12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>11</v>
+      </c>
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>11</v>
+      </c>
+      <c r="N14">
+        <v>11</v>
+      </c>
+      <c r="O14">
+        <v>11</v>
+      </c>
+      <c r="P14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>11</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>11</v>
+      </c>
+      <c r="L15">
+        <v>11</v>
+      </c>
+      <c r="M15">
+        <v>11</v>
+      </c>
+      <c r="N15">
+        <v>11</v>
+      </c>
+      <c r="O15">
+        <v>11</v>
+      </c>
+      <c r="P15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>11</v>
+      </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <v>11</v>
+      </c>
+      <c r="L16">
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <v>11</v>
+      </c>
+      <c r="N16">
+        <v>11</v>
+      </c>
+      <c r="O16">
+        <v>11</v>
+      </c>
+      <c r="P16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>11</v>
+      </c>
+      <c r="J17">
+        <v>11</v>
+      </c>
+      <c r="K17">
+        <v>11</v>
+      </c>
+      <c r="L17">
+        <v>11</v>
+      </c>
+      <c r="M17">
+        <v>11</v>
+      </c>
+      <c r="N17">
+        <v>11</v>
+      </c>
+      <c r="O17">
+        <v>11</v>
+      </c>
+      <c r="P17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>13</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <v>12</v>
+      </c>
+      <c r="K18">
+        <v>12</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>13</v>
+      </c>
+      <c r="N18">
+        <v>13</v>
+      </c>
+      <c r="O18">
+        <v>13</v>
+      </c>
+      <c r="P18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>13</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>12</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>13</v>
+      </c>
+      <c r="N19">
+        <v>13</v>
+      </c>
+      <c r="O19">
+        <v>13</v>
+      </c>
+      <c r="P19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>13</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>13</v>
+      </c>
+      <c r="N20">
+        <v>13</v>
+      </c>
+      <c r="O20">
+        <v>13</v>
+      </c>
+      <c r="P20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>13</v>
+      </c>
+      <c r="H21">
+        <v>13</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13</v>
+      </c>
+      <c r="N21">
+        <v>13</v>
+      </c>
+      <c r="O21">
+        <v>13</v>
+      </c>
+      <c r="P21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>13</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13</v>
+      </c>
+      <c r="N22">
+        <v>13</v>
+      </c>
+      <c r="O22">
+        <v>13</v>
+      </c>
+      <c r="P22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <v>13</v>
+      </c>
+      <c r="I23">
+        <v>12</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>13</v>
+      </c>
+      <c r="N23">
+        <v>13</v>
+      </c>
+      <c r="O23">
+        <v>13</v>
+      </c>
+      <c r="P23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>13</v>
+      </c>
+      <c r="F24">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>13</v>
+      </c>
+      <c r="I24">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>12</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>13</v>
+      </c>
+      <c r="N24">
+        <v>13</v>
+      </c>
+      <c r="O24">
+        <v>13</v>
+      </c>
+      <c r="P24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>13</v>
+      </c>
+      <c r="F25">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>13</v>
+      </c>
+      <c r="H25">
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <v>12</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>12</v>
+      </c>
+      <c r="L25">
+        <v>12</v>
+      </c>
+      <c r="M25">
+        <v>13</v>
+      </c>
+      <c r="N25">
+        <v>13</v>
+      </c>
+      <c r="O25">
+        <v>13</v>
+      </c>
+      <c r="P25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>11</v>
+      </c>
+      <c r="I27">
+        <v>11</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27">
+        <v>11</v>
+      </c>
+      <c r="L27">
+        <v>11</v>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+      <c r="N27">
+        <v>11</v>
+      </c>
+      <c r="O27">
+        <v>11</v>
+      </c>
+      <c r="P27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
+      </c>
+      <c r="F28">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>11</v>
+      </c>
+      <c r="I28">
+        <v>11</v>
+      </c>
+      <c r="J28">
+        <v>11</v>
+      </c>
+      <c r="K28">
+        <v>11</v>
+      </c>
+      <c r="L28">
+        <v>11</v>
+      </c>
+      <c r="M28">
+        <v>11</v>
+      </c>
+      <c r="N28">
+        <v>11</v>
+      </c>
+      <c r="O28">
+        <v>11</v>
+      </c>
+      <c r="P28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>11</v>
+      </c>
+      <c r="I29">
+        <v>11</v>
+      </c>
+      <c r="J29">
+        <v>11</v>
+      </c>
+      <c r="K29">
+        <v>11</v>
+      </c>
+      <c r="L29">
+        <v>11</v>
+      </c>
+      <c r="M29">
+        <v>11</v>
+      </c>
+      <c r="N29">
+        <v>11</v>
+      </c>
+      <c r="O29">
+        <v>11</v>
+      </c>
+      <c r="P29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>11</v>
+      </c>
+      <c r="I30">
+        <v>11</v>
+      </c>
+      <c r="J30">
+        <v>11</v>
+      </c>
+      <c r="K30">
+        <v>11</v>
+      </c>
+      <c r="L30">
+        <v>11</v>
+      </c>
+      <c r="M30">
+        <v>11</v>
+      </c>
+      <c r="N30">
+        <v>11</v>
+      </c>
+      <c r="O30">
+        <v>11</v>
+      </c>
+      <c r="P30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>13</v>
+      </c>
+      <c r="I31">
+        <v>13</v>
+      </c>
+      <c r="J31">
+        <v>13</v>
+      </c>
+      <c r="K31">
+        <v>13</v>
+      </c>
+      <c r="L31">
+        <v>13</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>13</v>
+      </c>
+      <c r="H32">
+        <v>13</v>
+      </c>
+      <c r="I32">
+        <v>13</v>
+      </c>
+      <c r="J32">
+        <v>13</v>
+      </c>
+      <c r="K32">
+        <v>13</v>
+      </c>
+      <c r="L32">
+        <v>13</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>12</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <v>13</v>
+      </c>
+      <c r="H33">
+        <v>13</v>
+      </c>
+      <c r="I33">
+        <v>13</v>
+      </c>
+      <c r="J33">
+        <v>13</v>
+      </c>
+      <c r="K33">
+        <v>13</v>
+      </c>
+      <c r="L33">
+        <v>13</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>12</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>13</v>
+      </c>
+      <c r="F34">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>13</v>
+      </c>
+      <c r="H34">
+        <v>13</v>
+      </c>
+      <c r="I34">
+        <v>13</v>
+      </c>
+      <c r="J34">
+        <v>13</v>
+      </c>
+      <c r="K34">
+        <v>13</v>
+      </c>
+      <c r="L34">
+        <v>13</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>12</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>13</v>
+      </c>
+      <c r="F35">
+        <v>13</v>
+      </c>
+      <c r="G35">
+        <v>13</v>
+      </c>
+      <c r="H35">
+        <v>13</v>
+      </c>
+      <c r="I35">
+        <v>13</v>
+      </c>
+      <c r="J35">
+        <v>13</v>
+      </c>
+      <c r="K35">
+        <v>13</v>
+      </c>
+      <c r="L35">
+        <v>13</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>12</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>13</v>
+      </c>
+      <c r="F36">
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <v>13</v>
+      </c>
+      <c r="H36">
+        <v>13</v>
+      </c>
+      <c r="I36">
+        <v>13</v>
+      </c>
+      <c r="J36">
+        <v>13</v>
+      </c>
+      <c r="K36">
+        <v>13</v>
+      </c>
+      <c r="L36">
+        <v>13</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>11</v>
+      </c>
+      <c r="E37">
+        <v>13</v>
+      </c>
+      <c r="F37">
+        <v>13</v>
+      </c>
+      <c r="G37">
+        <v>13</v>
+      </c>
+      <c r="H37">
+        <v>13</v>
+      </c>
+      <c r="I37">
+        <v>13</v>
+      </c>
+      <c r="J37">
+        <v>13</v>
+      </c>
+      <c r="K37">
+        <v>13</v>
+      </c>
+      <c r="L37">
+        <v>13</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>11</v>
+      </c>
+      <c r="E38">
+        <v>13</v>
+      </c>
+      <c r="F38">
+        <v>13</v>
+      </c>
+      <c r="G38">
+        <v>13</v>
+      </c>
+      <c r="H38">
+        <v>13</v>
+      </c>
+      <c r="I38">
+        <v>13</v>
+      </c>
+      <c r="J38">
+        <v>13</v>
+      </c>
+      <c r="K38">
+        <v>13</v>
+      </c>
+      <c r="L38">
+        <v>13</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
